--- a/data/trans_orig/P74B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P74B-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>29015</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20734</v>
+        <v>19206</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40844</v>
+        <v>38621</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08923593295257853</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06376767995497894</v>
+        <v>0.05907043884455233</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1256181203002798</v>
+        <v>0.118781345168755</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>129</v>
@@ -764,19 +764,19 @@
         <v>123753</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>113836</v>
+        <v>113779</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>131114</v>
+        <v>131165</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8527951705400996</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7844519770234668</v>
+        <v>0.7840607730708534</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9035155623371492</v>
+        <v>0.9038683715855123</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>159</v>
@@ -785,19 +785,19 @@
         <v>152768</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>132100</v>
+        <v>134818</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>171200</v>
+        <v>172071</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3248583095494733</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.280907559318449</v>
+        <v>0.286689166757961</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.364053885385449</v>
+        <v>0.3659068594590773</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>296130</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>284301</v>
+        <v>286524</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>304411</v>
+        <v>305939</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9107640670474215</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8743818796997198</v>
+        <v>0.881218654831245</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9362323200450209</v>
+        <v>0.9409295611554473</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -835,19 +835,19 @@
         <v>21362</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14001</v>
+        <v>13950</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31279</v>
+        <v>31336</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1472048294599004</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09648443766285078</v>
+        <v>0.09613162841448775</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2155480229765332</v>
+        <v>0.2159392269291467</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>316</v>
@@ -856,19 +856,19 @@
         <v>317492</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>299060</v>
+        <v>298189</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>338160</v>
+        <v>335442</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6751416904505267</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.635946114614551</v>
+        <v>0.6340931405409228</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7190924406815506</v>
+        <v>0.713310833242039</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>35379</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26090</v>
+        <v>25242</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49559</v>
+        <v>48892</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08166443457973802</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06022417756374198</v>
+        <v>0.05826636083385391</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1143957045868276</v>
+        <v>0.1128564862420255</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>131</v>
@@ -981,19 +981,19 @@
         <v>142216</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>131818</v>
+        <v>131522</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>151132</v>
+        <v>150821</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8570161466162441</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7943595163520181</v>
+        <v>0.7925725253592637</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9107436498744066</v>
+        <v>0.9088706096689598</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>165</v>
@@ -1002,19 +1002,19 @@
         <v>177594</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>156337</v>
+        <v>157278</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>201278</v>
+        <v>204084</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2964038145493864</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2609263272183791</v>
+        <v>0.2624954924853911</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3359313605594806</v>
+        <v>0.3406156064272881</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>397841</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>383661</v>
+        <v>384328</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>407130</v>
+        <v>407978</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.918335565420262</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8856042954131725</v>
+        <v>0.8871435137579743</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.939775822436258</v>
+        <v>0.9417336391661459</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>22</v>
@@ -1052,19 +1052,19 @@
         <v>23727</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14811</v>
+        <v>15122</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>34125</v>
+        <v>34421</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1429838533837559</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08925635012559356</v>
+        <v>0.09112939033104003</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.205640483647982</v>
+        <v>0.2074274746407354</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>399</v>
@@ -1073,19 +1073,19 @@
         <v>421569</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>397885</v>
+        <v>395079</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>442826</v>
+        <v>441885</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7035961854506135</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6640686394405194</v>
+        <v>0.6593843935727117</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7390736727816209</v>
+        <v>0.7375045075146089</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>15646</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9198</v>
+        <v>9051</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25390</v>
+        <v>25498</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04950320344580245</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02910248447860353</v>
+        <v>0.02863855940829659</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08033557188757923</v>
+        <v>0.08067552362184935</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>102</v>
@@ -1198,19 +1198,19 @@
         <v>96725</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>86609</v>
+        <v>87809</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>104387</v>
+        <v>104665</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.794710251278661</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7115919347814179</v>
+        <v>0.7214540189285944</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8576644956320456</v>
+        <v>0.8599435811554946</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>118</v>
@@ -1219,19 +1219,19 @@
         <v>112370</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>93781</v>
+        <v>95273</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>130732</v>
+        <v>130293</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2566905315853314</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2142252112460071</v>
+        <v>0.2176356751189567</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2986345479304006</v>
+        <v>0.2976305854736164</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>300409</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>290665</v>
+        <v>290557</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>306857</v>
+        <v>307004</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9504967965541975</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9196644281124209</v>
+        <v>0.9193244763781506</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9708975155213965</v>
+        <v>0.9713614405917034</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>26</v>
@@ -1269,19 +1269,19 @@
         <v>24986</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17324</v>
+        <v>17046</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>35102</v>
+        <v>33902</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.205289748721339</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1423355043679544</v>
+        <v>0.1400564188445053</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2884080652185822</v>
+        <v>0.2785459810714052</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>312</v>
@@ -1290,19 +1290,19 @@
         <v>325396</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>307034</v>
+        <v>307473</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>343985</v>
+        <v>342493</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7433094684146686</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7013654520695994</v>
+        <v>0.702369414526383</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7857747887539922</v>
+        <v>0.7823643248810432</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>27061</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18853</v>
+        <v>18450</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>36725</v>
+        <v>38950</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07933725027578119</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05527352883057719</v>
+        <v>0.05409230750175052</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1076698636983753</v>
+        <v>0.1141924491442735</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>143</v>
@@ -1415,19 +1415,19 @@
         <v>144720</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>132251</v>
+        <v>132532</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>153791</v>
+        <v>154430</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8071045044786511</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7375622065236376</v>
+        <v>0.7391283433762862</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8576931381636856</v>
+        <v>0.8612572884153763</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>171</v>
@@ -1436,19 +1436,19 @@
         <v>171781</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>150379</v>
+        <v>150789</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>192162</v>
+        <v>194160</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3300955580486373</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2889682561460848</v>
+        <v>0.2897570834782003</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3692586070057059</v>
+        <v>0.3730984056502727</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>314030</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>304366</v>
+        <v>302141</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>322238</v>
+        <v>322641</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9206627497242188</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8923301363016248</v>
+        <v>0.8858075508557268</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9447264711694229</v>
+        <v>0.9459076924982495</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>33</v>
@@ -1486,19 +1486,19 @@
         <v>34588</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>25517</v>
+        <v>24878</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>47057</v>
+        <v>46776</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1928954955213488</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1423068618363143</v>
+        <v>0.1387427115846236</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2624377934763625</v>
+        <v>0.2608716566237136</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>372</v>
@@ -1507,19 +1507,19 @@
         <v>348618</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>328237</v>
+        <v>326239</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>370020</v>
+        <v>369610</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6699044419513627</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6307413929942941</v>
+        <v>0.6269015943497273</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7110317438539152</v>
+        <v>0.7102429165217997</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>107100</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>87177</v>
+        <v>88865</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>126500</v>
+        <v>128825</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07566188670467343</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0615872000441982</v>
+        <v>0.06277946939149749</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08936730502494225</v>
+        <v>0.09100981288077629</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>505</v>
@@ -1632,19 +1632,19 @@
         <v>507414</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>485398</v>
+        <v>487304</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>525318</v>
+        <v>525635</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8290043296065239</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7930356921815003</v>
+        <v>0.7961499978401021</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8582567288181515</v>
+        <v>0.8587744168140747</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>613</v>
@@ -1653,19 +1653,19 @@
         <v>614514</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>575342</v>
+        <v>569277</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>658371</v>
+        <v>655463</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.303076285239454</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2837570956335702</v>
+        <v>0.2807654680396047</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3247063214644998</v>
+        <v>0.3232721470278784</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>1308412</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1289012</v>
+        <v>1286687</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1328335</v>
+        <v>1326647</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9243381132953266</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9106326949750573</v>
+        <v>0.908990187119224</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.938412799955801</v>
+        <v>0.9372205306085025</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>103</v>
@@ -1703,19 +1703,19 @@
         <v>104662</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>86758</v>
+        <v>86441</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>126678</v>
+        <v>124772</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1709956703934761</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1417432711818485</v>
+        <v>0.1412255831859251</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2069643078184997</v>
+        <v>0.2038500021598977</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1399</v>
@@ -1724,19 +1724,19 @@
         <v>1413074</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1369217</v>
+        <v>1372125</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1452246</v>
+        <v>1458311</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.696923714760546</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6752936785355004</v>
+        <v>0.6767278529721219</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7162429043664298</v>
+        <v>0.7192345319603953</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>47831</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36075</v>
+        <v>36148</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>61954</v>
+        <v>62818</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1590685656513763</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1199722611989992</v>
+        <v>0.1202156398827302</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2060356841712363</v>
+        <v>0.208909601319225</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>108</v>
@@ -2089,19 +2089,19 @@
         <v>116757</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>103192</v>
+        <v>101180</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>130906</v>
+        <v>130455</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6032601545729001</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5331703404080052</v>
+        <v>0.5227760157032497</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6763609206737841</v>
+        <v>0.6740348608990462</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>152</v>
@@ -2110,19 +2110,19 @@
         <v>164589</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>145106</v>
+        <v>142786</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>186821</v>
+        <v>188104</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3330132911918737</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2935923777387197</v>
+        <v>0.2888987430294198</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3779948390955</v>
+        <v>0.3805915310587119</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>252866</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>238743</v>
+        <v>237879</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>264622</v>
+        <v>264549</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8409314343486236</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7939643158287634</v>
+        <v>0.7910903986807751</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8800277388010007</v>
+        <v>0.8797843601172699</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>71</v>
@@ -2160,19 +2160,19 @@
         <v>76787</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>62638</v>
+        <v>63089</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>90352</v>
+        <v>92364</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3967398454270999</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.323639079326216</v>
+        <v>0.3259651391009538</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.466829659591995</v>
+        <v>0.4772239842967502</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>312</v>
@@ -2181,19 +2181,19 @@
         <v>329653</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>307421</v>
+        <v>306138</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>349136</v>
+        <v>351456</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6669867088081263</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6220051609045004</v>
+        <v>0.6194084689412881</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7064076222612805</v>
+        <v>0.71110125697058</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>52202</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>38834</v>
+        <v>38727</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>68371</v>
+        <v>68309</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1256258626677117</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0934554925251458</v>
+        <v>0.09319729419712033</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1645386924812127</v>
+        <v>0.1643877806419803</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>164</v>
@@ -2306,19 +2306,19 @@
         <v>182475</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>165054</v>
+        <v>166305</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>198347</v>
+        <v>199521</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6554103232458367</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5928362493352549</v>
+        <v>0.5973291917406518</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7124167566258695</v>
+        <v>0.7166341686889693</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>209</v>
@@ -2327,19 +2327,19 @@
         <v>234677</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>206616</v>
+        <v>209443</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>262035</v>
+        <v>261818</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3381768004257291</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2977395719808312</v>
+        <v>0.3018141516221631</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3775997858626479</v>
+        <v>0.3772869475603766</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>363332</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>347163</v>
+        <v>347225</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>376700</v>
+        <v>376807</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8743741373322883</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8354613075187874</v>
+        <v>0.8356122193580195</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9065445074748545</v>
+        <v>0.9068027058028792</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>86</v>
@@ -2377,19 +2377,19 @@
         <v>95939</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>80067</v>
+        <v>78893</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>113360</v>
+        <v>112109</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3445896767541634</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2875832433741305</v>
+        <v>0.283365831311031</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4071637506647451</v>
+        <v>0.4026708082593487</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>423</v>
@@ -2398,19 +2398,19 @@
         <v>459271</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>431913</v>
+        <v>432130</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>487332</v>
+        <v>484505</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6618231995742709</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6224002141373522</v>
+        <v>0.6227130524396238</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7022604280191688</v>
+        <v>0.6981858483778369</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>31479</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21316</v>
+        <v>21142</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44621</v>
+        <v>46054</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1065844916144729</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07217133335428969</v>
+        <v>0.07158376082241713</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1510797471983086</v>
+        <v>0.1559328219065966</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>119</v>
@@ -2523,19 +2523,19 @@
         <v>132361</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>118405</v>
+        <v>119272</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>145602</v>
+        <v>144244</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6824927076337645</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6105311166145504</v>
+        <v>0.6150018569329825</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7507636005188399</v>
+        <v>0.7437630526594804</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>145</v>
@@ -2544,19 +2544,19 @@
         <v>163841</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>142557</v>
+        <v>143774</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>187618</v>
+        <v>188072</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3348573627869678</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2913571617567757</v>
+        <v>0.2938449831911698</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3834521499510699</v>
+        <v>0.3843796186653127</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>263868</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>250726</v>
+        <v>249293</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>274031</v>
+        <v>274205</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8934155083855271</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8489202528016914</v>
+        <v>0.8440671780934034</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9278286666457104</v>
+        <v>0.9284162391775829</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>58</v>
@@ -2594,19 +2594,19 @@
         <v>61577</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>48336</v>
+        <v>49694</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>75533</v>
+        <v>74666</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3175072923662355</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.24923639948116</v>
+        <v>0.2562369473405195</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3894688833854496</v>
+        <v>0.3849981430670176</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>298</v>
@@ -2615,19 +2615,19 @@
         <v>325445</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>301668</v>
+        <v>301214</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>346729</v>
+        <v>345512</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6651426372130321</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6165478500489302</v>
+        <v>0.6156203813346873</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7086428382432243</v>
+        <v>0.7061550168088303</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>41352</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30029</v>
+        <v>30346</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55425</v>
+        <v>56070</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1136756750336581</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08254964452915874</v>
+        <v>0.08342146389919104</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1523640480211136</v>
+        <v>0.1541359911918459</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>183</v>
@@ -2740,19 +2740,19 @@
         <v>194046</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>179456</v>
+        <v>178954</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>206786</v>
+        <v>206916</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7676017533603542</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7098877683320673</v>
+        <v>0.707902097776213</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8179994451916266</v>
+        <v>0.8185117703822687</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>220</v>
@@ -2761,19 +2761,19 @@
         <v>235398</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>207200</v>
+        <v>209927</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>257733</v>
+        <v>259281</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3817889770909969</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3360545623143179</v>
+        <v>0.3404784382275865</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.418013593796747</v>
+        <v>0.4205235768596509</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>322418</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>308345</v>
+        <v>307700</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>333741</v>
+        <v>333424</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8863243249663419</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8476359519788865</v>
+        <v>0.845864008808154</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9174503554708413</v>
+        <v>0.916578536100809</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>55</v>
@@ -2811,19 +2811,19 @@
         <v>58749</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>46009</v>
+        <v>45879</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>73339</v>
+        <v>73841</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2323982466396458</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1820005548083734</v>
+        <v>0.1814882296177313</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2901122316679314</v>
+        <v>0.2920979022237869</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>363</v>
@@ -2832,19 +2832,19 @@
         <v>381168</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>358833</v>
+        <v>357285</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>409366</v>
+        <v>406639</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6182110229090031</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5819864062032533</v>
+        <v>0.5794764231403492</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6639454376856821</v>
+        <v>0.6595215617724135</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>172865</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>146968</v>
+        <v>146852</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>201104</v>
+        <v>199626</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1256878019828432</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1068585417763562</v>
+        <v>0.1067740754186132</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1462203184004502</v>
+        <v>0.1451453997702109</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>574</v>
@@ -2957,19 +2957,19 @@
         <v>625640</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>591528</v>
+        <v>595639</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>652132</v>
+        <v>654559</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6810124027462398</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6438810803029139</v>
+        <v>0.6483557346222826</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7098494970935557</v>
+        <v>0.7124904327172231</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>726</v>
@@ -2978,19 +2978,19 @@
         <v>798505</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>745818</v>
+        <v>752908</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>841352</v>
+        <v>844870</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3480779289039598</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3251112399089577</v>
+        <v>0.3282016809123373</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3667554435963214</v>
+        <v>0.3682892510355006</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>1202484</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1174245</v>
+        <v>1175723</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1228381</v>
+        <v>1228497</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8743121980171568</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8537796815995498</v>
+        <v>0.8548546002297891</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8931414582236438</v>
+        <v>0.8932259245813866</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>270</v>
@@ -3028,19 +3028,19 @@
         <v>293051</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>266559</v>
+        <v>264132</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>327163</v>
+        <v>323052</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3189875972537602</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2901505029064443</v>
+        <v>0.2875095672827768</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.356118919697086</v>
+        <v>0.3516442653777174</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1396</v>
@@ -3049,19 +3049,19 @@
         <v>1495535</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1452688</v>
+        <v>1449170</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1548222</v>
+        <v>1541132</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6519220710960402</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6332445564036788</v>
+        <v>0.6317107489644992</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6748887600910425</v>
+        <v>0.6717983190876629</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>32544</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23656</v>
+        <v>23481</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43043</v>
+        <v>44932</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1141571758571005</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08298107282667014</v>
+        <v>0.08236712346239092</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1509853405285751</v>
+        <v>0.157613149848261</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>127</v>
@@ -3414,19 +3414,19 @@
         <v>135670</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>122397</v>
+        <v>121538</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>147576</v>
+        <v>148265</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6687621263343534</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6033338473993541</v>
+        <v>0.5991011101609631</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7274506555426973</v>
+        <v>0.7308472049914676</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>161</v>
@@ -3435,19 +3435,19 @@
         <v>168214</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>149018</v>
+        <v>146356</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>190341</v>
+        <v>189927</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3447374939411457</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3053978448097519</v>
+        <v>0.299942147826658</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.390085517950565</v>
+        <v>0.3892369277389126</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>252536</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>242037</v>
+        <v>240148</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>261424</v>
+        <v>261599</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8858428241428995</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8490146594714248</v>
+        <v>0.842386850151739</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9170189271733299</v>
+        <v>0.9176328765376091</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>68</v>
@@ -3485,19 +3485,19 @@
         <v>67197</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>55291</v>
+        <v>54602</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>80470</v>
+        <v>81329</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3312378736656466</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2725493444573027</v>
+        <v>0.2691527950085323</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3966661526006452</v>
+        <v>0.4008988898390369</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>311</v>
@@ -3506,19 +3506,19 @@
         <v>319734</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>297607</v>
+        <v>298021</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>338930</v>
+        <v>341592</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6552625060588543</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.609914482049435</v>
+        <v>0.6107630722610875</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6946021551902481</v>
+        <v>0.700057852173342</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>52771</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40343</v>
+        <v>40406</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>67624</v>
+        <v>67995</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1335099843850827</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1020668991983787</v>
+        <v>0.1022266978266671</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1710894532009831</v>
+        <v>0.1720278845094778</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>153</v>
@@ -3631,19 +3631,19 @@
         <v>179883</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>163549</v>
+        <v>163302</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>195444</v>
+        <v>195573</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6420024387248816</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5837068783319088</v>
+        <v>0.5828240326656764</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6975369430742445</v>
+        <v>0.6980003247104019</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>202</v>
@@ -3652,19 +3652,19 @@
         <v>232654</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>208372</v>
+        <v>205913</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>257373</v>
+        <v>259644</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3444439443574704</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3084945812817504</v>
+        <v>0.3048537762890653</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3810393387769132</v>
+        <v>0.3844019601263661</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>342487</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>327634</v>
+        <v>327263</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>354915</v>
+        <v>354852</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8664900156149173</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8289105467990167</v>
+        <v>0.8279721154905221</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8979331008016213</v>
+        <v>0.8977733021733328</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>95</v>
@@ -3702,19 +3702,19 @@
         <v>100308</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>84747</v>
+        <v>84618</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>116642</v>
+        <v>116889</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3579975612751184</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3024630569257554</v>
+        <v>0.3019996752895984</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4162931216680913</v>
+        <v>0.4171759673343236</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>413</v>
@@ -3723,19 +3723,19 @@
         <v>442795</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>418076</v>
+        <v>415805</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>467077</v>
+        <v>469536</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6555560556425296</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6189606612230867</v>
+        <v>0.615598039873634</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6915054187182496</v>
+        <v>0.6951462237109347</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>25159</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16728</v>
+        <v>16228</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35926</v>
+        <v>35397</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07903086988899416</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05254640328890028</v>
+        <v>0.05097623387881384</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1128506764219257</v>
+        <v>0.1111904161544875</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>108</v>
@@ -3848,19 +3848,19 @@
         <v>124358</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>110112</v>
+        <v>110180</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>137033</v>
+        <v>138978</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6301372769335417</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5579516074008646</v>
+        <v>0.5582975040456831</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6943665782073897</v>
+        <v>0.7042191227720129</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>133</v>
@@ -3869,19 +3869,19 @@
         <v>149517</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>128063</v>
+        <v>128140</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>171215</v>
+        <v>172643</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2899316754220253</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2483306122084684</v>
+        <v>0.2484798371138144</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3320075061845883</v>
+        <v>0.334776604674349</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>293188</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>282421</v>
+        <v>282950</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>301619</v>
+        <v>302119</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9209691301110058</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8871493235780747</v>
+        <v>0.8888095838455129</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9474535967110997</v>
+        <v>0.9490237661211863</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>71</v>
@@ -3919,19 +3919,19 @@
         <v>72992</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>60317</v>
+        <v>58372</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>87238</v>
+        <v>87170</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3698627230664582</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3056334217926103</v>
+        <v>0.2957808772279872</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4420483925991355</v>
+        <v>0.4417024959543169</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>343</v>
@@ -3940,19 +3940,19 @@
         <v>366180</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>344482</v>
+        <v>343054</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>387634</v>
+        <v>387557</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7100683245779746</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6679924938154118</v>
+        <v>0.665223395325651</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7516693877915317</v>
+        <v>0.7515201628861856</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>58611</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>45958</v>
+        <v>46307</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>73004</v>
+        <v>72280</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1631908493977505</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1279609820539589</v>
+        <v>0.1289343199823183</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2032663490533466</v>
+        <v>0.2012513158326575</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>133</v>
@@ -4065,19 +4065,19 @@
         <v>152963</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>137786</v>
+        <v>140127</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>166361</v>
+        <v>165218</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7081965563698454</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6379300999389493</v>
+        <v>0.6487674330024975</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7702304497198266</v>
+        <v>0.7649388306433506</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>194</v>
@@ -4086,19 +4086,19 @@
         <v>211573</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>189085</v>
+        <v>188325</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>234998</v>
+        <v>234597</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.367861956029276</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3287626469449689</v>
+        <v>0.327441603279198</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4085906594558604</v>
+        <v>0.4078937777588497</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>300543</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>286150</v>
+        <v>286874</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>313196</v>
+        <v>312847</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8368091506022495</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7967336509466534</v>
+        <v>0.7987486841673425</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8720390179460412</v>
+        <v>0.8710656800176817</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>58</v>
@@ -4136,19 +4136,19 @@
         <v>63026</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>49628</v>
+        <v>50771</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>78203</v>
+        <v>75862</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2918034436301547</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2297695502801734</v>
+        <v>0.2350611693566495</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3620699000610502</v>
+        <v>0.3512325669975024</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>366</v>
@@ -4157,19 +4157,19 @@
         <v>363569</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>340144</v>
+        <v>340545</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>386057</v>
+        <v>386817</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.632138043970724</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5914093405441393</v>
+        <v>0.5921062222411503</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6712373530550311</v>
+        <v>0.672558396720802</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>169085</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>144822</v>
+        <v>145464</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>194046</v>
+        <v>193354</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1245248439097295</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1066559123807741</v>
+        <v>0.107128787411487</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1429080253099005</v>
+        <v>0.1423982180745963</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>521</v>
@@ -4282,19 +4282,19 @@
         <v>592873</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>561459</v>
+        <v>565324</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>622053</v>
+        <v>620762</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.661395897553089</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6263506872068259</v>
+        <v>0.6306628538798604</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.693948504842934</v>
+        <v>0.6925074930843803</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>690</v>
@@ -4303,19 +4303,19 @@
         <v>761958</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>718557</v>
+        <v>713882</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>809478</v>
+        <v>808079</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3380116568486318</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3187584847664577</v>
+        <v>0.3166847251738127</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.359091839875714</v>
+        <v>0.3584711424427872</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>1188754</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1163793</v>
+        <v>1164485</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1213017</v>
+        <v>1212375</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8754751560902705</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8570919746900995</v>
+        <v>0.8576017819254035</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.893344087619226</v>
+        <v>0.8928712125885129</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>292</v>
@@ -4353,19 +4353,19 @@
         <v>303524</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>274344</v>
+        <v>275635</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>334938</v>
+        <v>331073</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.338604102446911</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3060514951570661</v>
+        <v>0.3074925069156194</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3736493127931743</v>
+        <v>0.3693371461201393</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1433</v>
@@ -4374,19 +4374,19 @@
         <v>1492279</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1444759</v>
+        <v>1446158</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1535680</v>
+        <v>1540355</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6619883431513682</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6409081601242862</v>
+        <v>0.641528857557213</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6812415152335423</v>
+        <v>0.6833152748261874</v>
       </c>
     </row>
     <row r="18">
